--- a/biology/Médecine/Diverticule_de_Zenker/Diverticule_de_Zenker.xlsx
+++ b/biology/Médecine/Diverticule_de_Zenker/Diverticule_de_Zenker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En anatomie, un diverticule de Zenker est un diverticule (une poche) de pulsion qui se forme au-dessus du sphincter œsophagien supérieur entre le faisceau thyroïdien du muscle constricteur inférieur et le faisceau cricoïdien du muscle constricteur inférieur (aussi appelé muscle cricopharyngien).
 </t>
@@ -511,7 +523,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa présence est due à une hypertonie du muscle crico-pharyngé (sphincter oesophagien supérieur (SSO)). 
 </t>
@@ -542,9 +556,11 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le diagnostic est radiologique. Aujourd'hui l'imagerie de première intention à effectuer est un scanner cervico-thoraco-abdomino-pelvien avec opacification digestive haute ainsi qu'injection de produit de contraste. Le transit œso-gastro-duodénal historiquement utilisé qui visualise le diverticule sous forme d'une image d'addition du tiers supérieur de l'œsophage n'a pratiquement plus d'indication à l'heure actuelle en raison de la meilleure précision de l'examen TDM[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le diagnostic est radiologique. Aujourd'hui l'imagerie de première intention à effectuer est un scanner cervico-thoraco-abdomino-pelvien avec opacification digestive haute ainsi qu'injection de produit de contraste. Le transit œso-gastro-duodénal historiquement utilisé qui visualise le diverticule sous forme d'une image d'addition du tiers supérieur de l'œsophage n'a pratiquement plus d'indication à l'heure actuelle en raison de la meilleure précision de l'examen TDM. 
 L'endoscopie œso-gastro-duodénale est quant à elle classiquement contre-indiquée car dangereuse, avec un risque de perforation du diverticule au moment de l'introduction de l'endoscope dans la bouche œsophagienne.
 </t>
         </is>
@@ -574,7 +590,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le traitement consiste soit en une chirurgie (résection du diverticule associée à une section du muscle crico-pharyngien), soit de plus en plus souvent en un traitement endoscopique avec résection du septum séparant le diverticule de l'œsophage.
 Il doit son nom à Friedrich Albert von Zenker.
